--- a/table/tools/UserDefineType.xlsx
+++ b/table/tools/UserDefineType.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>类型</t>
   </si>
@@ -35,25 +35,19 @@
     <t>说明</t>
   </si>
   <si>
-    <t>Common.DegreeType</t>
-  </si>
-  <si>
-    <t>common_degree.proto</t>
-  </si>
-  <si>
-    <t>TYPE_INVALID</t>
-  </si>
-  <si>
-    <t>Common.EffectType</t>
-  </si>
-  <si>
-    <t>common_effect.proto</t>
-  </si>
-  <si>
-    <t>EFFECT_TYPE_INVALID</t>
-  </si>
-  <si>
-    <t>Common.Effect</t>
+    <t>common_test.proto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM_TEST_INVALID</t>
+  </si>
+  <si>
+    <t>Common.EnumTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common.StructTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -161,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -435,13 +429,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -449,18 +443,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
